--- a/medicine/Psychotrope/La_Barberie/La_Barberie.xlsx
+++ b/medicine/Psychotrope/La_Barberie/La_Barberie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Barberie est une microbrasserie québécoise utilisant un modèle coopératif. Elle est située dans le quartier Saint-Roch de la ville de Québec.
@@ -512,10 +524,12 @@
           <t>La coopérative</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Barberie est fondée en 1995[1] par Bruno Blais, Mario Alain et Todd Picard[2]. En 2016, elle emploie près d’une trentaine de travailleurs et produit annuellement plus de 2700 hectolitres. Située à l’extrémité est de Saint-Roch, La Barberie est active dans son quartier dont elle soutient la revitalisation et le développement économique et social, en plus d’être impliquée dans le mouvement coopératif et le développement du savoir-faire microbrassicole au Québec[3]. 
-Un salon de dégustation  adjacent au lieu de brassage est ouvert au public depuis 1997[4].  Plus de 200 recettes de bières ont déjà été brassées à ce jour et depuis août 2002, elle embouteille et distribue ses produits un peu partout dans la province de Québec[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Barberie est fondée en 1995 par Bruno Blais, Mario Alain et Todd Picard. En 2016, elle emploie près d’une trentaine de travailleurs et produit annuellement plus de 2700 hectolitres. Située à l’extrémité est de Saint-Roch, La Barberie est active dans son quartier dont elle soutient la revitalisation et le développement économique et social, en plus d’être impliquée dans le mouvement coopératif et le développement du savoir-faire microbrassicole au Québec. 
+Un salon de dégustation  adjacent au lieu de brassage est ouvert au public depuis 1997.  Plus de 200 recettes de bières ont déjà été brassées à ce jour et depuis août 2002, elle embouteille et distribue ses produits un peu partout dans la province de Québec.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>La gamme saisonnière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pale Ale lime et framboise
 Pale Ale/Bière aux fruits 
@@ -582,7 +598,9 @@
           <t>La gamme régulière</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Blonde biologique
 Ale américaine 
